--- a/data/trans_orig/P33B4_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B4_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>17704</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6567</v>
+        <v>6739</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35064</v>
+        <v>35411</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04341498616117814</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01610349650354734</v>
+        <v>0.01652563952131874</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08598552612059912</v>
+        <v>0.08683565856625816</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -762,19 +762,19 @@
         <v>26883</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14628</v>
+        <v>14899</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46045</v>
+        <v>44540</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07415692152915727</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04035171424914105</v>
+        <v>0.04109995484722147</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1270154247556751</v>
+        <v>0.1228638321241247</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -783,19 +783,19 @@
         <v>44587</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26883</v>
+        <v>27518</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>67545</v>
+        <v>66655</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05788239732973932</v>
+        <v>0.05788239732973931</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03489931561212482</v>
+        <v>0.035723255158425</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08768611485879517</v>
+        <v>0.08653039920280881</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>13311</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4468</v>
+        <v>4835</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31165</v>
+        <v>29682</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.032641447272517</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01095739453686179</v>
+        <v>0.01185771231834939</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0764231532412097</v>
+        <v>0.07278667029922098</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -833,19 +833,19 @@
         <v>22430</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11036</v>
+        <v>12200</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38613</v>
+        <v>39252</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06187440582106609</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0304433053112013</v>
+        <v>0.0336537305330032</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1065156134521033</v>
+        <v>0.1082774393407628</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -854,19 +854,19 @@
         <v>35741</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20498</v>
+        <v>21497</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>58458</v>
+        <v>59600</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.0463987213651522</v>
+        <v>0.04639872136515219</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02660963030175209</v>
+        <v>0.02790681040283757</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0758891087088799</v>
+        <v>0.07737224269031918</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>31578</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17178</v>
+        <v>18384</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53315</v>
+        <v>52477</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07743546733519696</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04212406502624673</v>
+        <v>0.04508177788701617</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1307414553681352</v>
+        <v>0.1286849311326577</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -904,19 +904,19 @@
         <v>34176</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20963</v>
+        <v>21370</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>50061</v>
+        <v>50801</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09427439474608805</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05782637423228528</v>
+        <v>0.05895035990547812</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1380952923360822</v>
+        <v>0.1401361288807724</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>35</v>
@@ -925,19 +925,19 @@
         <v>65753</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>46671</v>
+        <v>46147</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>91171</v>
+        <v>90385</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.08536000700958153</v>
+        <v>0.08536000700958152</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06058733434261619</v>
+        <v>0.0599069624919896</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1183571327332458</v>
+        <v>0.1173365145642185</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>345200</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>319687</v>
+        <v>314458</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>369325</v>
+        <v>365058</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8465080992311079</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.783943961590874</v>
+        <v>0.7711206526846829</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9056679027554191</v>
+        <v>0.8952052857333506</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>163</v>
@@ -975,19 +975,19 @@
         <v>279023</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>256426</v>
+        <v>254868</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>302059</v>
+        <v>298667</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7696942779036885</v>
+        <v>0.7696942779036886</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7073579116599625</v>
+        <v>0.7030603461704944</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8332392415509647</v>
+        <v>0.8238820511685279</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>308</v>
@@ -996,19 +996,19 @@
         <v>624223</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>591369</v>
+        <v>589891</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>652262</v>
+        <v>652696</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8103588742955269</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7677082073767154</v>
+        <v>0.7657889946592576</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8467585266360692</v>
+        <v>0.8473211108021661</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>16740</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8480</v>
+        <v>8308</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>32999</v>
+        <v>31863</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03510224595149282</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01778094714197102</v>
+        <v>0.01742147611505946</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06919577028257992</v>
+        <v>0.06681388753924865</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>26</v>
@@ -1121,19 +1121,19 @@
         <v>30899</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>20172</v>
+        <v>20763</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>45483</v>
+        <v>43633</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.06166349055328315</v>
+        <v>0.06166349055328316</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04025668773518783</v>
+        <v>0.04143558586615267</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09076866215890385</v>
+        <v>0.08707763107739704</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>36</v>
@@ -1142,19 +1142,19 @@
         <v>47638</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>32769</v>
+        <v>33763</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>65840</v>
+        <v>67451</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04871140048523</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03350676858635019</v>
+        <v>0.034523659537366</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06732317422897362</v>
+        <v>0.06897007959252036</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>23385</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13961</v>
+        <v>13500</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36848</v>
+        <v>36999</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04903593690173107</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02927434080280655</v>
+        <v>0.02830821236339689</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07726739654270263</v>
+        <v>0.07758434691499876</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -1192,19 +1192,19 @@
         <v>36368</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25680</v>
+        <v>26207</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50090</v>
+        <v>50768</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07257931150743445</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05124904327334207</v>
+        <v>0.05230084712171552</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09996416624228628</v>
+        <v>0.1013174126588309</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -1213,19 +1213,19 @@
         <v>59753</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43275</v>
+        <v>45347</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79591</v>
+        <v>79775</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06109882883538256</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04424921775509</v>
+        <v>0.04636786665143344</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08138372730601179</v>
+        <v>0.08157138851609441</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>56887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>40434</v>
+        <v>40371</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>75326</v>
+        <v>78144</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1192876675296759</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08478698238788683</v>
+        <v>0.08465384678649768</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1579515936597361</v>
+        <v>0.1638627044861294</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>74</v>
@@ -1263,19 +1263,19 @@
         <v>73434</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>58844</v>
+        <v>60330</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>90876</v>
+        <v>90090</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1465497942886699</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1174332825249289</v>
+        <v>0.1204000176530361</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1813595173462515</v>
+        <v>0.179791242480079</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>112</v>
@@ -1284,19 +1284,19 @@
         <v>130321</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>107829</v>
+        <v>107293</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>158981</v>
+        <v>155229</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1332559322531021</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1102576010151893</v>
+        <v>0.1097100275556368</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1625613878440886</v>
+        <v>0.1587253813880211</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>379878</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>354177</v>
+        <v>354636</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>399837</v>
+        <v>401647</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7965741496171002</v>
+        <v>0.7965741496171003</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7426799156399412</v>
+        <v>0.743642789325761</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8384270970518649</v>
+        <v>0.842222080221102</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>328</v>
@@ -1334,19 +1334,19 @@
         <v>360383</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>338538</v>
+        <v>338926</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>381269</v>
+        <v>379116</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7192074036506124</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6756133839720918</v>
+        <v>0.6763862884678191</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.760890840422667</v>
+        <v>0.7565931125844798</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>566</v>
@@ -1355,19 +1355,19 @@
         <v>740261</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>709293</v>
+        <v>708312</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>770579</v>
+        <v>770249</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7569338384262854</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7252687536069523</v>
+        <v>0.7242653955136815</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7879347324459219</v>
+        <v>0.7875975057297253</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>38367</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25948</v>
+        <v>27429</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>54065</v>
+        <v>54025</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0619955076938582</v>
+        <v>0.06199550769385821</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04192830301895994</v>
+        <v>0.04432124379860316</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08736003896034093</v>
+        <v>0.08729624364645988</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>73</v>
@@ -1480,19 +1480,19 @@
         <v>55325</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>44267</v>
+        <v>43821</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>68584</v>
+        <v>69478</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.08892700463354161</v>
+        <v>0.08892700463354163</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07115268184920391</v>
+        <v>0.07043677876206116</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1102389235325677</v>
+        <v>0.1116762214940391</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>105</v>
@@ -1501,19 +1501,19 @@
         <v>93692</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>76418</v>
+        <v>77568</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>115366</v>
+        <v>113533</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.07549672363934849</v>
+        <v>0.07549672363934852</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06157764010894561</v>
+        <v>0.06250360105471024</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09296164181159226</v>
+        <v>0.09148451527090772</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>39575</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>27259</v>
+        <v>27465</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>55961</v>
+        <v>53750</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06394663287919368</v>
+        <v>0.06394663287919369</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04404710852601674</v>
+        <v>0.044379728359859</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09042463482084041</v>
+        <v>0.08685173246374522</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>69</v>
@@ -1551,19 +1551,19 @@
         <v>52223</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>40639</v>
+        <v>39908</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>64920</v>
+        <v>65065</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.08394145906751768</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06532066476484823</v>
+        <v>0.06414598963588963</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1043495591320623</v>
+        <v>0.104583404500657</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>103</v>
@@ -1572,19 +1572,19 @@
         <v>91798</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>72811</v>
+        <v>75883</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>109765</v>
+        <v>111084</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.07397037818996141</v>
+        <v>0.07397037818996142</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05867051607404067</v>
+        <v>0.06114614369035209</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08844824976912899</v>
+        <v>0.08951082764355398</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>88512</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>71444</v>
+        <v>70881</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>109491</v>
+        <v>107046</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1430215814857816</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1154418991105664</v>
+        <v>0.1145323611267723</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1769207286399114</v>
+        <v>0.1729705696733757</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>188</v>
@@ -1622,19 +1622,19 @@
         <v>129022</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>113713</v>
+        <v>113042</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>145482</v>
+        <v>147802</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2073853181468999</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.182777562188445</v>
+        <v>0.1816989888085423</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2338418381980278</v>
+        <v>0.2375705678052985</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>274</v>
@@ -1643,19 +1643,19 @@
         <v>217534</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>194130</v>
+        <v>192112</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>246575</v>
+        <v>241058</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1752882137367345</v>
+        <v>0.1752882137367346</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1564293419877371</v>
+        <v>0.1548030751508115</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1986887052452291</v>
+        <v>0.1942432465656266</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>452417</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>426754</v>
+        <v>426225</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>474083</v>
+        <v>473482</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7310362779411668</v>
+        <v>0.7310362779411667</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6895678167021876</v>
+        <v>0.6887136438870403</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7660442976480005</v>
+        <v>0.7650731249397614</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>516</v>
@@ -1693,19 +1693,19 @@
         <v>385568</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>365797</v>
+        <v>366274</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>405042</v>
+        <v>405612</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6197462181520408</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5879662774266552</v>
+        <v>0.5887336103884716</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6510478715844933</v>
+        <v>0.6519642548770628</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>908</v>
@@ -1714,19 +1714,19 @@
         <v>837985</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>805614</v>
+        <v>807240</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>869874</v>
+        <v>869702</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6752446844339556</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6491595971303457</v>
+        <v>0.6504701891315712</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.70094014335344</v>
+        <v>0.7008015735014156</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>45774</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33986</v>
+        <v>32610</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>63147</v>
+        <v>60947</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.06533371074961393</v>
+        <v>0.06533371074961392</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04850875954401119</v>
+        <v>0.04654525129329121</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09013054425359998</v>
+        <v>0.08698991320457163</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>128</v>
@@ -1839,19 +1839,19 @@
         <v>86065</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>73100</v>
+        <v>73435</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>101670</v>
+        <v>101056</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1168577777797919</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09925369362849744</v>
+        <v>0.09970865227014822</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1380457264647801</v>
+        <v>0.1372121707927096</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>167</v>
@@ -1860,19 +1860,19 @@
         <v>131839</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>113741</v>
+        <v>114074</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>153501</v>
+        <v>154921</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0917388994836623</v>
+        <v>0.09173889948366233</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07914570658298231</v>
+        <v>0.07937718414403888</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1068120681923336</v>
+        <v>0.1077999049009942</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>49770</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>36305</v>
+        <v>36963</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>66664</v>
+        <v>65102</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0710373990358171</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0518188947382533</v>
+        <v>0.05275749900606069</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09515005921384326</v>
+        <v>0.09292028008881166</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>125</v>
@@ -1910,19 +1910,19 @@
         <v>82561</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>70012</v>
+        <v>69655</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>96518</v>
+        <v>95505</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.112099242468883</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09506078532100945</v>
+        <v>0.09457655508806102</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1310504871071874</v>
+        <v>0.12967532020058</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>173</v>
@@ -1931,19 +1931,19 @@
         <v>132331</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>113330</v>
+        <v>111880</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>153620</v>
+        <v>153335</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09208088003631733</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07885957321154669</v>
+        <v>0.07785070990410806</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1068951492903285</v>
+        <v>0.1066967493573422</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>135628</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>115390</v>
+        <v>115487</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>156953</v>
+        <v>156107</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1935841943891346</v>
+        <v>0.1935841943891345</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.164697813905206</v>
+        <v>0.1648363096995476</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2240215596382011</v>
+        <v>0.2228137286690791</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>279</v>
@@ -1981,19 +1981,19 @@
         <v>170514</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>151906</v>
+        <v>153612</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>187884</v>
+        <v>189151</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2315209902274044</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2062554931857208</v>
+        <v>0.2085719746677278</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2551058106207944</v>
+        <v>0.2568264950780487</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>418</v>
@@ -2002,19 +2002,19 @@
         <v>306142</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>281827</v>
+        <v>279980</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>337296</v>
+        <v>338469</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2130261428185521</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1961062601742471</v>
+        <v>0.1948212135987753</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2347042679089775</v>
+        <v>0.2355200584405562</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>469445</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>442645</v>
+        <v>441927</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>493632</v>
+        <v>491855</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6700446958254346</v>
+        <v>0.6700446958254344</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6317930158315126</v>
+        <v>0.6307678294175442</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7045669228537649</v>
+        <v>0.7020307389262657</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>608</v>
@@ -2052,19 +2052,19 @@
         <v>397355</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>376150</v>
+        <v>375169</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>418506</v>
+        <v>419725</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5395219895239206</v>
+        <v>0.5395219895239205</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5107299745755438</v>
+        <v>0.5093984075323473</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5682398630774785</v>
+        <v>0.5698950399536611</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1047</v>
@@ -2073,19 +2073,19 @@
         <v>866800</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>830603</v>
+        <v>832460</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>897935</v>
+        <v>898542</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6031540776614681</v>
+        <v>0.6031540776614682</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5779666115210828</v>
+        <v>0.5792586964406413</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6248193796657622</v>
+        <v>0.625241727269128</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>55306</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>42809</v>
+        <v>42882</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>68958</v>
+        <v>69016</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.09092378976931384</v>
+        <v>0.09092378976931381</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07037821069421774</v>
+        <v>0.07049849332947861</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1133691452463892</v>
+        <v>0.1134638454648096</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>136</v>
@@ -2198,19 +2198,19 @@
         <v>88073</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>75088</v>
+        <v>74630</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>102625</v>
+        <v>103116</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.1448254348052546</v>
+        <v>0.1448254348052547</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1234728168374986</v>
+        <v>0.1227198021116559</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1687541999017328</v>
+        <v>0.1695613360768442</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>199</v>
@@ -2219,19 +2219,19 @@
         <v>143379</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>124651</v>
+        <v>124795</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>163719</v>
+        <v>162127</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1178716886040346</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1024758272845245</v>
+        <v>0.1025936402894218</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1345937734057198</v>
+        <v>0.1332843235584594</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>41639</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30883</v>
+        <v>30847</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>55799</v>
+        <v>55032</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.06845519984450711</v>
+        <v>0.0684551998445071</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05077162160030006</v>
+        <v>0.05071341252018215</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09173502726726618</v>
+        <v>0.09047339027798916</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>154</v>
@@ -2269,19 +2269,19 @@
         <v>94738</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>81328</v>
+        <v>81477</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>108432</v>
+        <v>110319</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1557848886452688</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1337342336103507</v>
+        <v>0.1339782564879205</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1783028542487478</v>
+        <v>0.1814059701418731</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>200</v>
@@ -2290,19 +2290,19 @@
         <v>136377</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>118465</v>
+        <v>118168</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>154770</v>
+        <v>155295</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1121153073885606</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09739017583877543</v>
+        <v>0.09714554580183442</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1272366243910049</v>
+        <v>0.1276683974921821</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>124683</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>106705</v>
+        <v>107750</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>143328</v>
+        <v>145544</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2049818395632555</v>
+        <v>0.2049818395632554</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1754253084736908</v>
+        <v>0.177142582330125</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2356335421606294</v>
+        <v>0.239276919299886</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>257</v>
@@ -2340,19 +2340,19 @@
         <v>143358</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>126731</v>
+        <v>126428</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>159468</v>
+        <v>160290</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2357339748585755</v>
+        <v>0.2357339748585756</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2083929789320905</v>
+        <v>0.2078945717302919</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2622263025332915</v>
+        <v>0.2635779417350445</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>400</v>
@@ -2361,19 +2361,19 @@
         <v>268041</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>246540</v>
+        <v>243798</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>296482</v>
+        <v>294361</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2203562391819937</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2026807417759041</v>
+        <v>0.2004262800746422</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2437382158113808</v>
+        <v>0.2419942825641836</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>386637</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>365606</v>
+        <v>365712</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>408512</v>
+        <v>409675</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6356391708229236</v>
+        <v>0.6356391708229234</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6010643547839588</v>
+        <v>0.6012386755661518</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6716018005372486</v>
+        <v>0.6735138958245681</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>454</v>
@@ -2411,19 +2411,19 @@
         <v>281964</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>262622</v>
+        <v>262283</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>302033</v>
+        <v>301247</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.463655701690901</v>
+        <v>0.4636557016909011</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.431848885456161</v>
+        <v>0.4312916008860894</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4966563093640147</v>
+        <v>0.4953634582618199</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>864</v>
@@ -2432,19 +2432,19 @@
         <v>668601</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>640866</v>
+        <v>639940</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>698825</v>
+        <v>701077</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.5496567648254113</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5268558845814731</v>
+        <v>0.5260950231141566</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5745040684626135</v>
+        <v>0.5763550220273667</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>38511</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>28975</v>
+        <v>29329</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>47883</v>
+        <v>48869</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09460224792999974</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0711772218614381</v>
+        <v>0.07204821470231765</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1176245686923728</v>
+        <v>0.1200481031144535</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>123</v>
@@ -2557,19 +2557,19 @@
         <v>70138</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>59173</v>
+        <v>58839</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>81058</v>
+        <v>81316</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1597066606842979</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1347403835905127</v>
+        <v>0.1339795784214758</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1845718613207403</v>
+        <v>0.1851608138248656</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>180</v>
@@ -2578,19 +2578,19 @@
         <v>108648</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>94055</v>
+        <v>94590</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>123421</v>
+        <v>124551</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1283887113858152</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.11114369491726</v>
+        <v>0.1117765729009975</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1458456420529207</v>
+        <v>0.1471801477819231</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>26371</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>19553</v>
+        <v>18995</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>35736</v>
+        <v>35165</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.06477991104416768</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04803308639991798</v>
+        <v>0.04666173984081706</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08778555153055623</v>
+        <v>0.08638316835606649</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>85</v>
@@ -2628,19 +2628,19 @@
         <v>44595</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>36341</v>
+        <v>36285</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>55091</v>
+        <v>54826</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.1015439324985855</v>
+        <v>0.1015439324985854</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08275021677983806</v>
+        <v>0.08262160963798523</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1254434986115485</v>
+        <v>0.1248417124423059</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>124</v>
@@ -2649,19 +2649,19 @@
         <v>70965</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>58798</v>
+        <v>58268</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>83445</v>
+        <v>82934</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.08385889839401513</v>
+        <v>0.08385889839401515</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06948102234104865</v>
+        <v>0.06885414375750952</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09860636895700896</v>
+        <v>0.09800224278702656</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>90789</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>77914</v>
+        <v>77156</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>104378</v>
+        <v>106553</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.223024915535427</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1913965483869761</v>
+        <v>0.1895356803812041</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2564063931459143</v>
+        <v>0.2617498222041011</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>237</v>
@@ -2699,19 +2699,19 @@
         <v>119282</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>106831</v>
+        <v>105514</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>131740</v>
+        <v>133352</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2716105171197373</v>
+        <v>0.2716105171197372</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2432599232401287</v>
+        <v>0.2402599960776162</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2999784150899518</v>
+        <v>0.3036481614889237</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>365</v>
@@ -2720,19 +2720,19 @@
         <v>210071</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>191974</v>
+        <v>191629</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>230045</v>
+        <v>230241</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2482388078502568</v>
+        <v>0.2482388078502569</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2268535061642354</v>
+        <v>0.2264459718234162</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2718423093877722</v>
+        <v>0.2720730331314769</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>251410</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>233226</v>
+        <v>235011</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>266990</v>
+        <v>266942</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6175929254904056</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5729236697380771</v>
+        <v>0.5773100668992289</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6558667078792713</v>
+        <v>0.655747968854175</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>382</v>
@@ -2770,19 +2770,19 @@
         <v>205152</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>191477</v>
+        <v>190023</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>219621</v>
+        <v>220908</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.4671388896973795</v>
+        <v>0.4671388896973794</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4360008912787096</v>
+        <v>0.432691077056824</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5000874413852034</v>
+        <v>0.5030181283979337</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>728</v>
@@ -2791,19 +2791,19 @@
         <v>456561</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>433801</v>
+        <v>435055</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>479263</v>
+        <v>479611</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.5395135823699128</v>
+        <v>0.5395135823699129</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5126178559621316</v>
+        <v>0.5140998979917188</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5663398133159752</v>
+        <v>0.5667515185726529</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>43580</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>34466</v>
+        <v>34933</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>54512</v>
+        <v>55365</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1404916748568043</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.111108857445308</v>
+        <v>0.1126161016965738</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1757328965803189</v>
+        <v>0.178481560772988</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>158</v>
@@ -2916,19 +2916,19 @@
         <v>89284</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>76498</v>
+        <v>77684</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>102795</v>
+        <v>101769</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1926498762269148</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1650610522353431</v>
+        <v>0.1676194020542282</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.221803500876243</v>
+        <v>0.2195876328469841</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>222</v>
@@ -2937,19 +2937,19 @@
         <v>132865</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>116142</v>
+        <v>117570</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>148284</v>
+        <v>150255</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.17173686404801</v>
+        <v>0.1717368640480101</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1501223561334399</v>
+        <v>0.1519673295422182</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1916674621464913</v>
+        <v>0.1942148863380032</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>37818</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>28963</v>
+        <v>28481</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>47681</v>
+        <v>48257</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1219152315387676</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09336812808629427</v>
+        <v>0.09181679870606495</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1537126985768637</v>
+        <v>0.1555694389533905</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>115</v>
@@ -2987,19 +2987,19 @@
         <v>61106</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>51318</v>
+        <v>51442</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>72458</v>
+        <v>72595</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1318501296645525</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1107298445157923</v>
+        <v>0.1109972128504226</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1563438085359288</v>
+        <v>0.1566400537357265</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>174</v>
@@ -3008,19 +3008,19 @@
         <v>98924</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>84729</v>
+        <v>84454</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>113365</v>
+        <v>113926</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.1278666977201415</v>
+        <v>0.1278666977201416</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1095180073152684</v>
+        <v>0.1091627648833762</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1465322044218572</v>
+        <v>0.1472572081871983</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>61071</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>49986</v>
+        <v>50199</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>73073</v>
+        <v>73402</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.1968782489528613</v>
+        <v>0.1968782489528612</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1611426643946279</v>
+        <v>0.1618299317096154</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2355682958603552</v>
+        <v>0.2366299186499812</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>256</v>
@@ -3058,19 +3058,19 @@
         <v>121299</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>108330</v>
+        <v>107574</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>134787</v>
+        <v>135025</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2617288696053113</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2337447774910442</v>
+        <v>0.2321150476661077</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2908317182370366</v>
+        <v>0.291345518916409</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>350</v>
@@ -3079,19 +3079,19 @@
         <v>182371</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>164087</v>
+        <v>165243</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>200202</v>
+        <v>199346</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2357267877871409</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2120944947665625</v>
+        <v>0.2135885539649602</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2587759010269773</v>
+        <v>0.2576684927267534</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>167729</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>152948</v>
+        <v>153312</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>181881</v>
+        <v>183261</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5407148446515667</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4930660574305052</v>
+        <v>0.4942380108169127</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5863371593506651</v>
+        <v>0.5907883934747862</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>350</v>
@@ -3129,19 +3129,19 @@
         <v>191763</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>175781</v>
+        <v>176539</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>207196</v>
+        <v>207968</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.4137711245032213</v>
+        <v>0.4137711245032215</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3792846784610067</v>
+        <v>0.3809216254347607</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4470695659732438</v>
+        <v>0.4487357664860721</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>591</v>
@@ -3150,19 +3150,19 @@
         <v>359493</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>339854</v>
+        <v>339315</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>380684</v>
+        <v>381787</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4646696504447076</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4392855584363558</v>
+        <v>0.4385880878313482</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4920612285658698</v>
+        <v>0.4934872672925646</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>255982</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>226746</v>
+        <v>223441</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>291358</v>
+        <v>287513</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.07252203523775252</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.06423906521481433</v>
+        <v>0.06330272547125798</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.08254424893618746</v>
+        <v>0.08145505548808901</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>657</v>
@@ -3275,19 +3275,19 @@
         <v>446667</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>415041</v>
+        <v>412448</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>482738</v>
+        <v>483501</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.119654093993352</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1111822278390828</v>
+        <v>0.1104875491640292</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1293171152093155</v>
+        <v>0.1295212900826685</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>929</v>
@@ -3296,19 +3296,19 @@
         <v>702649</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>657608</v>
+        <v>654821</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>758905</v>
+        <v>749614</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.0967476288677193</v>
+        <v>0.09674762886771929</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.09054593654171167</v>
+        <v>0.09016220109072302</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1044935097274187</v>
+        <v>0.1032142623582063</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>231868</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>201713</v>
+        <v>201716</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>264782</v>
+        <v>260307</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0656902528728973</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.05714705196429459</v>
+        <v>0.05714793122609677</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07501505758954474</v>
+        <v>0.07374723031091178</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>591</v>
@@ -3346,19 +3346,19 @@
         <v>394021</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>361248</v>
+        <v>362933</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>427644</v>
+        <v>426544</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1055513417658093</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.09677203230532976</v>
+        <v>0.0972232850010879</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1145583297648569</v>
+        <v>0.1142636251310134</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>838</v>
@@ -3367,19 +3367,19 @@
         <v>625889</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>581315</v>
+        <v>580511</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>669044</v>
+        <v>669231</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.08617861189355952</v>
+        <v>0.08617861189355951</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.08004124426619974</v>
+        <v>0.07993051823163387</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.09212065151286576</v>
+        <v>0.09214631755523407</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>589148</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>537780</v>
+        <v>544892</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>631361</v>
+        <v>633764</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.166911110831395</v>
+        <v>0.1669111108313949</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1523579062841781</v>
+        <v>0.1543729853379417</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1788703743090588</v>
+        <v>0.1795510597337991</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1311</v>
@@ -3417,19 +3417,19 @@
         <v>791085</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>747898</v>
+        <v>751817</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>828354</v>
+        <v>833953</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.211917632827575</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2003487985805341</v>
+        <v>0.201398544166591</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2219015150072006</v>
+        <v>0.223401222700803</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1954</v>
@@ -3438,19 +3438,19 @@
         <v>1380233</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1322395</v>
+        <v>1322264</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1446385</v>
+        <v>1439179</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1900441914004267</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1820805063835576</v>
+        <v>0.1820624822846395</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.199152592522567</v>
+        <v>0.1981603715226847</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>2452716</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2392502</v>
+        <v>2394317</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2515922</v>
+        <v>2510843</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.6948766010579553</v>
+        <v>0.6948766010579551</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.6778174125107543</v>
+        <v>0.6783317648890601</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.712783542862043</v>
+        <v>0.711344507036845</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2801</v>
@@ -3488,19 +3488,19 @@
         <v>2101209</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2043237</v>
+        <v>2045365</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2153305</v>
+        <v>2155787</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.5628769314132636</v>
+        <v>0.5628769314132637</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.5473470817192119</v>
+        <v>0.5479171011873112</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.5768324561578185</v>
+        <v>0.5774973371230016</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>5012</v>
@@ -3509,19 +3509,19 @@
         <v>4553925</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>4470127</v>
+        <v>4481157</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4626811</v>
+        <v>4630278</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.6270295678382946</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.6154913631214378</v>
+        <v>0.617010126521655</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.6370652041305462</v>
+        <v>0.6375425540811303</v>
       </c>
     </row>
     <row r="43">
